--- a/video reference.xlsx
+++ b/video reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD610C-C8B7-4974-A25F-ECC7D7D6DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9EA03-6F9F-4E2F-89A6-FE46CD7F4B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1755" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="2235" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>https://www.dropbox.com/s/anc896dcraq0qnm/SnapSave.io-%C2%BFC%C3%B3mo%20funciona%20un%20aerogenerador_%20%20_%20Sostenibilidad%20-%20ACCIONA%28720p%29.mp4?dl=0</t>
   </si>
@@ -39,13 +39,19 @@
     <t>Título</t>
   </si>
   <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Dropbox (original)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Multiplicadora - Rodamientos</t>
+  </si>
+  <si>
+    <t>Enlace original</t>
+  </si>
+  <si>
+    <t>Dropbox (pre-conversión)</t>
+  </si>
+  <si>
+    <t>https://www.schaeffler.es/es/productos-y-soluciones/industria/soluciones-sectoriales/energia/energia-eolica/multiplicadora/</t>
   </si>
 </sst>
 </file>
@@ -97,10 +103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,25 +394,25 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -417,124 +422,131 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{77EE812B-923A-4409-89B0-0188EF43AE55}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{112A4891-7FAF-41A9-885B-BBD07F451CFC}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0F48B289-D08A-4315-A1E0-AEFDFF08C0F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/video reference.xlsx
+++ b/video reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9EA03-6F9F-4E2F-89A6-FE46CD7F4B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493C862-E3AA-4E44-9354-EF6CDA78EBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="2235" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3060" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
